--- a/примеры + рекомендации/Пример решения ДЕМО/Ресурсы/Участники_import/участники.xlsx
+++ b/примеры + рекомендации/Пример решения ДЕМО/Ресурсы/Участники_import/участники.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEFF3DEA-C988-4589-9A34-8A0D1BB24511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0715216-C9C4-478B-8F02-AF964A569E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2076" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="146">
   <si>
     <t>ФИО</t>
   </si>
@@ -112,18 +115,6 @@
     <t>пол</t>
   </si>
   <si>
-    <t>м</t>
-  </si>
-  <si>
-    <t>мужской</t>
-  </si>
-  <si>
-    <t>женский</t>
-  </si>
-  <si>
-    <t>муж</t>
-  </si>
-  <si>
     <t>MXnTeS</t>
   </si>
   <si>
@@ -244,66 +235,6 @@
     <t>7(811)866-06-03</t>
   </si>
   <si>
-    <t>Медведева Ангелина Владиславовна</t>
-  </si>
-  <si>
-    <t>Михеева Ангелина Антониновна</t>
-  </si>
-  <si>
-    <t>Лобанова Августа Богуславовна</t>
-  </si>
-  <si>
-    <t>Панфилова Северина Дмитрьевна</t>
-  </si>
-  <si>
-    <t>Тимофеева Магдалина Тимуровна</t>
-  </si>
-  <si>
-    <t>Волкова Силика Геласьевна</t>
-  </si>
-  <si>
-    <t>Фомина Милда Рудольфовна</t>
-  </si>
-  <si>
-    <t>Шарова Лунара Николаевна</t>
-  </si>
-  <si>
-    <t>Муравьёва Адель Сергеевна</t>
-  </si>
-  <si>
-    <t>Моисеева Анастасия Иринеевна</t>
-  </si>
-  <si>
-    <t>Нестеров Альберт Артёмович</t>
-  </si>
-  <si>
-    <t>Зимин Геннадий Геннадьевич</t>
-  </si>
-  <si>
-    <t>Терентьев Макар Куприянович</t>
-  </si>
-  <si>
-    <t>Фомичёв Эрик Геласьевич</t>
-  </si>
-  <si>
-    <t>Сазонов Игорь Тимофеевич</t>
-  </si>
-  <si>
-    <t>Егоров Клемент Валерьевич</t>
-  </si>
-  <si>
-    <t>Михайлов Велор Матвеевич</t>
-  </si>
-  <si>
-    <t>Лихачёв Альберт Федорович</t>
-  </si>
-  <si>
-    <t>Орехов Харитон Тихонович</t>
-  </si>
-  <si>
-    <t>Буров Виссарион Созонович</t>
-  </si>
-  <si>
     <t>qpy6ug2j38kc@mail.com</t>
   </si>
   <si>
@@ -362,6 +293,180 @@
   </si>
   <si>
     <t>vp9atch1olkb@yahoo.com</t>
+  </si>
+  <si>
+    <t>Медведева</t>
+  </si>
+  <si>
+    <t>Ангелина</t>
+  </si>
+  <si>
+    <t>Владиславовна</t>
+  </si>
+  <si>
+    <t>Михеева</t>
+  </si>
+  <si>
+    <t>Антониновна</t>
+  </si>
+  <si>
+    <t>Лобанова</t>
+  </si>
+  <si>
+    <t>Августа</t>
+  </si>
+  <si>
+    <t>Богуславовна</t>
+  </si>
+  <si>
+    <t>Панфилова</t>
+  </si>
+  <si>
+    <t>Северина</t>
+  </si>
+  <si>
+    <t>Дмитрьевна</t>
+  </si>
+  <si>
+    <t>Тимофеева</t>
+  </si>
+  <si>
+    <t>Магдалина</t>
+  </si>
+  <si>
+    <t>Тимуровна</t>
+  </si>
+  <si>
+    <t>Волкова</t>
+  </si>
+  <si>
+    <t>Силика</t>
+  </si>
+  <si>
+    <t>Геласьевна</t>
+  </si>
+  <si>
+    <t>Фомина</t>
+  </si>
+  <si>
+    <t>Милда</t>
+  </si>
+  <si>
+    <t>Рудольфовна</t>
+  </si>
+  <si>
+    <t>Шарова</t>
+  </si>
+  <si>
+    <t>Лунара</t>
+  </si>
+  <si>
+    <t>Николаевна</t>
+  </si>
+  <si>
+    <t>Муравьёва</t>
+  </si>
+  <si>
+    <t>Адель</t>
+  </si>
+  <si>
+    <t>Сергеевна</t>
+  </si>
+  <si>
+    <t>Моисеева</t>
+  </si>
+  <si>
+    <t>Анастасия</t>
+  </si>
+  <si>
+    <t>Иринеевна</t>
+  </si>
+  <si>
+    <t>Нестеров</t>
+  </si>
+  <si>
+    <t>Альберт</t>
+  </si>
+  <si>
+    <t>Артёмович</t>
+  </si>
+  <si>
+    <t>Зимин</t>
+  </si>
+  <si>
+    <t>Геннадий</t>
+  </si>
+  <si>
+    <t>Геннадьевич</t>
+  </si>
+  <si>
+    <t>Терентьев</t>
+  </si>
+  <si>
+    <t>Макар</t>
+  </si>
+  <si>
+    <t>Куприянович</t>
+  </si>
+  <si>
+    <t>Фомичёв</t>
+  </si>
+  <si>
+    <t>Эрик</t>
+  </si>
+  <si>
+    <t>Геласьевич</t>
+  </si>
+  <si>
+    <t>Сазонов</t>
+  </si>
+  <si>
+    <t>Игорь</t>
+  </si>
+  <si>
+    <t>Тимофеевич</t>
+  </si>
+  <si>
+    <t>Егоров</t>
+  </si>
+  <si>
+    <t>Клемент</t>
+  </si>
+  <si>
+    <t>Валерьевич</t>
+  </si>
+  <si>
+    <t>Михайлов</t>
+  </si>
+  <si>
+    <t>Велор</t>
+  </si>
+  <si>
+    <t>Матвеевич</t>
+  </si>
+  <si>
+    <t>Лихачёв</t>
+  </si>
+  <si>
+    <t>Федорович</t>
+  </si>
+  <si>
+    <t>Орехов</t>
+  </si>
+  <si>
+    <t>Харитон</t>
+  </si>
+  <si>
+    <t>Тихонович</t>
+  </si>
+  <si>
+    <t>Буров</t>
+  </si>
+  <si>
+    <t>Виссарион</t>
+  </si>
+  <si>
+    <t>Созонович</t>
   </si>
 </sst>
 </file>
@@ -371,7 +476,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\+\7&quot; &quot;\(#\)&quot; &quot;000\-00\-00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,578 +824,758 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="3">
+        <v>26067</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="3">
+        <v>26041</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="3">
+        <v>30621</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="3">
+        <v>32794</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="3">
-        <v>26067</v>
-      </c>
-      <c r="D2">
-        <v>96</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F6" s="3">
+        <v>35042</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="3">
-        <v>26041</v>
-      </c>
-      <c r="D3">
+      <c r="F7" s="3">
+        <v>30015</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="3">
+        <v>28225</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="3">
+        <v>29014</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="3">
+        <v>30188</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="3">
+        <v>35660</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3">
+        <v>26855</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="3">
-        <v>30621</v>
-      </c>
-      <c r="D4">
-        <v>35</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="3">
-        <v>32794</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="3">
-        <v>35042</v>
-      </c>
-      <c r="D6">
-        <v>69</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="3">
-        <v>30015</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="3">
-        <v>28225</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="3">
-        <v>29014</v>
-      </c>
-      <c r="D9">
-        <v>54</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F13" s="3">
+        <v>27510</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="3">
-        <v>30188</v>
-      </c>
-      <c r="D10">
-        <v>73</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F14" s="6">
+        <v>32307</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="3">
-        <v>35660</v>
-      </c>
-      <c r="D11">
-        <v>71</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F15" s="6">
+        <v>29679</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="3">
-        <v>26855</v>
-      </c>
-      <c r="D12">
-        <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F16" s="6">
+        <v>32622</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="3">
-        <v>27510</v>
-      </c>
-      <c r="D13">
-        <v>73</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F17" s="6">
+        <v>26162</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="6">
-        <v>32307</v>
-      </c>
-      <c r="D14">
+      <c r="F18" s="6">
+        <v>28914</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="6">
-        <v>29679</v>
-      </c>
-      <c r="D15">
-        <v>55</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F19" s="6">
+        <v>26506</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="I19" t="s">
         <v>45</v>
       </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="6">
-        <v>32622</v>
-      </c>
-      <c r="D16">
-        <v>77</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F20" s="6">
+        <v>29117</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
+      <c r="J20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="6">
-        <v>26162</v>
-      </c>
-      <c r="D17">
-        <v>52</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F21" s="7">
+        <v>27649</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="6">
-        <v>28914</v>
-      </c>
-      <c r="D18">
-        <v>28</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="6">
-        <v>26506</v>
-      </c>
-      <c r="D19">
-        <v>53</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="6">
-        <v>29117</v>
-      </c>
-      <c r="D20">
-        <v>74</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="7">
-        <v>27649</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="J21" t="s">
         <v>25</v>
       </c>
-      <c r="H21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8">
+      <c r="K21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
     </row>
-    <row r="81" spans="6:6">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" t="str">
         <f>_xlfn.TEXTJOIN(,,G80,H80)</f>
         <v/>
